--- a/DesignCalculations.xlsx
+++ b/DesignCalculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documentos\KiCAD Projects\PowerSupply\LM25085\PowerSupplyDC_DC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{7568A132-8D62-4EC1-9225-CD8E979AB0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DC977C-BEB6-444E-89F6-77039E0A6EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1188" yWindow="-108" windowWidth="21960" windowHeight="13176" xr2:uid="{A751BA2A-60A2-4693-BBB0-E416EF9A55A7}"/>
+    <workbookView xWindow="-20604" yWindow="1968" windowWidth="20712" windowHeight="11136" xr2:uid="{A751BA2A-60A2-4693-BBB0-E416EF9A55A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -325,12 +325,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DA0083-A0F5-4433-8C4E-C9D80C4143CC}">
   <dimension ref="A2:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,7 +996,7 @@
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <f>B28*B51*(1-B4)</f>
         <v>1.0357910747727415</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -1221,7 +1222,7 @@
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="3" t="s">
         <v>79</v>
       </c>
       <c r="K55" t="s">
@@ -1261,7 +1262,7 @@
       <c r="A61" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61">
         <f>B59+B57</f>
         <v>0.22220864767611256</v>
       </c>

--- a/DesignCalculations.xlsx
+++ b/DesignCalculations.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documentos\KiCAD Projects\PowerSupply\LM25085\PowerSupplyDC_DC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rossvideoltd-my.sharepoint.com/personal/christian_rivera_rossvideo_com/Documents/Documents/PowerSupplyDC_DC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DC977C-BEB6-444E-89F6-77039E0A6EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{83DC977C-BEB6-444E-89F6-77039E0A6EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F745B4A1-A52C-4E42-8B85-86B2BC1213AB}"/>
   <bookViews>
-    <workbookView xWindow="-20604" yWindow="1968" windowWidth="20712" windowHeight="11136" xr2:uid="{A751BA2A-60A2-4693-BBB0-E416EF9A55A7}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{A751BA2A-60A2-4693-BBB0-E416EF9A55A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
   <si>
     <t>Ripple current</t>
   </si>
@@ -54,12 +53,6 @@
     <t>Rsense</t>
   </si>
   <si>
-    <t>Max tripping voltage</t>
-  </si>
-  <si>
-    <t>Current at max trip voltage</t>
-  </si>
-  <si>
     <t>+ 9 mV max comp offset</t>
   </si>
   <si>
@@ -276,10 +269,6 @@
     <t>Total V ripple</t>
   </si>
   <si>
-    <t xml:space="preserve">
-TCJA106M025R0150</t>
-  </si>
-  <si>
     <t>Size 1206</t>
   </si>
   <si>
@@ -290,6 +279,51 @@
   </si>
   <si>
     <t>DCR 16.5 mOhm</t>
+  </si>
+  <si>
+    <t>TCJA106M025R0150</t>
+  </si>
+  <si>
+    <t>min tripping voltage</t>
+  </si>
+  <si>
+    <t>Current at min trip voltage</t>
+  </si>
+  <si>
+    <t>Minimum voltage drop required to achieve Load max curr.</t>
+  </si>
+  <si>
+    <t>next higher avail value</t>
+  </si>
+  <si>
+    <t>Max power Radj</t>
+  </si>
+  <si>
+    <t>Max power Rsense</t>
+  </si>
+  <si>
+    <t>Power RFB1</t>
+  </si>
+  <si>
+    <t>Power RFB2</t>
+  </si>
+  <si>
+    <t>Power Q1</t>
+  </si>
+  <si>
+    <t>8.4 nC</t>
+  </si>
+  <si>
+    <t>SQ3419AEEV total gate charge</t>
+  </si>
+  <si>
+    <t>+1.3mA from figure 2 datasheet</t>
+  </si>
+  <si>
+    <t>Temp rise power PAD</t>
+  </si>
+  <si>
+    <t>Temp rise No Power Pad</t>
   </si>
 </sst>
 </file>
@@ -325,13 +359,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,97 +699,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DA0083-A0F5-4433-8C4E-C9D80C4143CC}">
-  <dimension ref="A2:O63"/>
+  <dimension ref="A2:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <f>B3/B2</f>
         <v>0.375</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
-        <f>B4/B21</f>
+        <f>B4/B24</f>
         <v>3.7500000000000001E-7</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2">
         <f>(29-6)*10^-9</f>
         <v>2.3000000000000001E-8</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2">
         <f>B6+50*10^-9</f>
         <v>7.3000000000000005E-8</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -764,10 +798,10 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M10">
         <v>-8.9999999999999993E-3</v>
@@ -779,7 +813,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -788,28 +822,28 @@
         <v>3.5</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L11">
         <v>3.1999999999999999E-5</v>
       </c>
       <c r="M11">
-        <f>(L11*$B$16-$M$10)/$B$12</f>
-        <v>5.3000000000000007</v>
+        <f>(L11*$B$17+$M$10)/$B$12</f>
+        <v>3.5799999999999996</v>
       </c>
       <c r="N11">
-        <f>(L11*$B$16-$N$10)/$B$12</f>
-        <v>4.4000000000000004</v>
+        <f>(L11*$B$17+$N$10)/$B$12</f>
+        <v>4.4799999999999995</v>
       </c>
       <c r="O11">
-        <f>(L11*$B$16-$O$10)/$B$12</f>
-        <v>3.5000000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <f>(L11*$B$17+$O$10)/$B$12</f>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -817,25 +851,25 @@
         <v>0.01</v>
       </c>
       <c r="K12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L12">
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="M12">
-        <f>(L12*$B$16-$M$10)/$B$12</f>
-        <v>6.4000000000000012</v>
+        <f t="shared" ref="M12:M13" si="0">(L12*$B$17+$M$10)/$B$12</f>
+        <v>4.7</v>
       </c>
       <c r="N12">
-        <f>(L12*$B$16-$N$10)/$B$12</f>
-        <v>5.5000000000000009</v>
+        <f t="shared" ref="N12:N13" si="1">(L12*$B$17+$N$10)/$B$12</f>
+        <v>5.6</v>
       </c>
       <c r="O12">
-        <f>(L12*$B$16-$O$10)/$B$12</f>
-        <v>4.6000000000000014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ref="O12:O13" si="2">(L12*$B$17+$O$10)/$B$12</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -843,47 +877,50 @@
         <f>B12*B11</f>
         <v>3.5000000000000003E-2</v>
       </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L13">
         <v>4.8000000000000001E-5</v>
       </c>
       <c r="M13">
-        <f>(L13*$B$16-$M$10)/$B$12</f>
-        <v>7.5000000000000009</v>
+        <f t="shared" si="0"/>
+        <v>5.8199999999999994</v>
       </c>
       <c r="N13">
-        <f>(L13*$B$16-$N$10)/$B$12</f>
-        <v>6.6000000000000014</v>
+        <f t="shared" si="1"/>
+        <v>6.72</v>
       </c>
       <c r="O13">
-        <f>(L13*$B$16-$O$10)/$B$12</f>
-        <v>5.7000000000000011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>7.6199999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B14">
         <f>B13+0.009</f>
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="B15">
         <f>B14/B12</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -892,384 +929,465 @@
         <v>1375.0000000000002</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1400</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <f>(B17*0.000048+0.009)/0.01</f>
-        <v>9.6359999999999992</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7.6199999999999992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <f>(B17*0.000032-0.009)/0.01</f>
-        <v>4.9239999999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3.5799999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20">
+        <f>L13*O13/B12</f>
+        <v>3.6575999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B21">
+        <f>B12*O13^2</f>
+        <v>0.58064399999999983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
         <v>1000000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
         <f>B5</f>
         <v>3.7500000000000001E-7</v>
       </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <f>B9*B25/B26</f>
+        <v>1.1249999999999999E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C29" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25">
-        <f>B9*B22/B23</f>
-        <v>2.8125000000000001E-7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="B26">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>0.45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B32" s="2">
+        <f>B31*B54*(1-B4)</f>
+        <v>1.0357910747727415</v>
+      </c>
+      <c r="C32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
-        <v>0.45</v>
-      </c>
-      <c r="D28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29">
-        <f>B28*B51*(1-B4)</f>
-        <v>1.0357910747727415</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2">
-        <f>(12.2*(32-1.56)/(0.000000145*32*B21))-(B7*(32-1.56)/0.000000145)-1.4</f>
+      <c r="B36" s="2">
+        <f>(12.2*(32-1.56)/(0.000000145*32*B24))-(B7*(32-1.56)/0.000000145)-1.4</f>
         <v>63.311241379310353</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="4">
+        <v>63.4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="2">
+        <f>12*(32-1.56+B37/3167)/(32*(0.000000145*(B37+1.4)+(B7*(32-1.56+B37/3167))))</f>
+        <v>983039.46829055995</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2">
+        <f>(0.000000145*(B37+1.4)/(42-1.56+B37/3167))+0.00000005</f>
+        <v>2.8222925359194013E-7</v>
+      </c>
+      <c r="C42" s="2">
+        <f>B42+B6</f>
+        <v>3.0522925359194011E-7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="2">
+        <f>$B$4/C42</f>
+        <v>1228584.7296318987</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>39</v>
       </c>
-      <c r="G33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="2">
-        <v>63.4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B43" s="2">
+        <f>(0.000000145*(B37+1.4)/(20-1.56+B37/3167))+0.00000005</f>
+        <v>5.5899189365970334E-7</v>
+      </c>
+      <c r="C43" s="2">
+        <f>B43+B6</f>
+        <v>5.8199189365970338E-7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="2">
+        <f>$B$4/C43</f>
+        <v>644338.87152948277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <f>2*B47</f>
+        <v>1.4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2">
+        <f>B42*(42-12)/B48</f>
+        <v>6.0477697198272885E-6</v>
+      </c>
+      <c r="D50" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="2">
-        <f>12*(32-1.56+B34/3167)/(32*(0.000000145*(B34+1.4)+(B7*(32-1.56+B34/3167))))</f>
-        <v>983039.46829055995</v>
-      </c>
-      <c r="D35" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>6.1999999999999999E-6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2">
+        <f>B42*(42-12)/B51</f>
+        <v>1.365625420606162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2">
+        <f>B53/2+B9</f>
+        <v>3.682812710303081</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <f>B53/(B56*B38*8)</f>
+        <v>8.682417292594145E-7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="2">
-        <f>(0.000000145*(B34+1.4)/(42-1.56+B34/3167))+0.00000005</f>
-        <v>2.8222925359194013E-7</v>
-      </c>
-      <c r="C39" s="2">
-        <f>B39+B6</f>
-        <v>3.0522925359194011E-7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="2">
-        <f>$B$4/C39</f>
-        <v>1228584.7296318987</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="2">
-        <f>(0.000000145*(B34+1.4)/(20-1.56+B34/3167))+0.00000005</f>
-        <v>5.5899189365970334E-7</v>
-      </c>
-      <c r="C40" s="2">
-        <f>B40+B6</f>
-        <v>5.8199189365970338E-7</v>
-      </c>
-      <c r="D40" t="s">
-        <v>47</v>
-      </c>
-      <c r="H40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="2">
-        <f>$B$4/C40</f>
-        <v>644338.87152948277</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45">
-        <f>2*B44</f>
-        <v>1.4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="2">
-        <f>B39*(42-12)/B45</f>
-        <v>6.0477697198272885E-6</v>
-      </c>
-      <c r="D47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48">
-        <v>6.1999999999999999E-6</v>
-      </c>
-      <c r="D48" t="s">
-        <v>81</v>
-      </c>
-      <c r="F48" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="2">
-        <f>B39*(42-12)/B48</f>
-        <v>1.365625420606162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="2">
-        <f>B50/2+B9</f>
-        <v>3.682812710303081</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="2">
-        <f>B50/(B53*B35*8)</f>
-        <v>8.682417292594145E-7</v>
-      </c>
-      <c r="D54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55">
+      <c r="B58">
         <v>10</v>
       </c>
-      <c r="F55">
+      <c r="F58">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="2">
-        <f>B50/((B55*10^-6)*B35*8)</f>
+      <c r="H58" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="2">
+        <f>B53/((B58*10^-6)*B38*8)</f>
         <v>1.7364834585188293E-2</v>
       </c>
-      <c r="D57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="D60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="2">
+        <f>B61*B53</f>
+        <v>0.20484381309092428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>76</v>
       </c>
-      <c r="B58">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" s="2">
-        <f>B58*B50</f>
-        <v>0.20484381309092428</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61">
-        <f>B59+B57</f>
+      <c r="B64">
+        <f>B62+B60</f>
         <v>0.22220864767611256</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>74</v>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70">
+        <f>((12-1.25)^2)/10000</f>
+        <v>1.1556250000000001E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71">
+        <f>(1.25^2)/1150</f>
+        <v>1.358695652173913E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72">
+        <f>8.4*10^-9</f>
+        <v>8.4000000000000008E-9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73">
+        <f>32*(B72*B24+0.0013)</f>
+        <v>0.31040000000000001</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74">
+        <f>54*B73</f>
+        <v>16.761600000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75">
+        <f>153*B73</f>
+        <v>47.491199999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DesignCalculations.xlsx
+++ b/DesignCalculations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rossvideoltd-my.sharepoint.com/personal/christian_rivera_rossvideo_com/Documents/Documents/PowerSupplyDC_DC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documentos\KiCAD Projects\PowerSupply\LM25085\PowerSupplyDC_DC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{83DC977C-BEB6-444E-89F6-77039E0A6EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F745B4A1-A52C-4E42-8B85-86B2BC1213AB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FD7C32-ABFF-4500-BEE2-E0B1F39A467A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{A751BA2A-60A2-4693-BBB0-E416EF9A55A7}"/>
+    <workbookView xWindow="-20604" yWindow="1968" windowWidth="20712" windowHeight="11136" xr2:uid="{A751BA2A-60A2-4693-BBB0-E416EF9A55A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
   <si>
     <t>Ripple current</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>Temp rise No Power Pad</t>
+  </si>
+  <si>
+    <t>Power RT</t>
+  </si>
+  <si>
+    <t>Worst case voltage</t>
   </si>
 </sst>
 </file>
@@ -359,12 +365,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,21 +705,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DA0083-A0F5-4433-8C4E-C9D80C4143CC}">
   <dimension ref="A2:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="R52" sqref="R52"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -723,7 +727,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -731,7 +735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -740,7 +744,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -755,7 +759,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -770,7 +774,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -782,7 +786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -790,7 +794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -813,7 +817,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -843,7 +847,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -869,7 +873,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -899,7 +903,7 @@
         <v>7.6199999999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -911,7 +915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -920,7 +924,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -932,7 +936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -943,7 +947,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -952,7 +956,7 @@
         <v>7.6199999999999992</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -961,7 +965,7 @@
         <v>3.5799999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -970,7 +974,7 @@
         <v>3.6575999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -979,7 +983,7 @@
         <v>0.58064399999999983</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -987,7 +991,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -999,7 +1003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1007,7 +1011,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1016,7 +1020,7 @@
         <v>1.1249999999999999E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1030,7 +1034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1050,11 +1054,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <f>B31*B54*(1-B4)</f>
         <v>1.0357910747727415</v>
       </c>
@@ -1062,7 +1066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1073,7 +1077,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -1088,11 +1092,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37">
         <v>63.4</v>
       </c>
       <c r="C37" t="s">
@@ -1102,7 +1106,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -1114,13 +1118,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>41</v>
       </c>
@@ -1128,7 +1132,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -1151,7 +1155,7 @@
         <v>1228584.7296318987</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -1174,12 +1178,12 @@
         <v>644338.87152948277</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1187,7 +1191,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1202,7 +1206,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1231,7 +1235,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1240,16 +1244,16 @@
         <v>1.365625420606162</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <f>B53/2+B9</f>
         <v>3.682812710303081</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1257,7 +1261,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1269,7 +1273,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -1280,14 +1284,14 @@
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" t="s">
         <v>81</v>
       </c>
       <c r="K58" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -1299,7 +1303,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -1307,7 +1311,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -1316,7 +1320,7 @@
         <v>0.20484381309092428</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -1325,12 +1329,24 @@
         <v>0.22220864767611256</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69">
+        <f>(42^2)/63400</f>
+        <v>2.7823343848580442E-2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -1339,7 +1355,7 @@
         <v>1.1556250000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>89</v>
       </c>
@@ -1348,7 +1364,7 @@
         <v>1.358695652173913E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>92</v>
       </c>
@@ -1360,7 +1376,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>90</v>
       </c>
@@ -1372,7 +1388,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -1381,7 +1397,7 @@
         <v>16.761600000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>95</v>
       </c>
